--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2965.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2965.xlsx
@@ -354,7 +354,7 @@
         <v>2.640277321643605</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.183870724628886</v>
